--- a/ocr.xlsx
+++ b/ocr.xlsx
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ocr.xlsx
+++ b/ocr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -55,7 +55,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Account</x:t>
+    <x:t>New Opportunity</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -64,31 +64,67 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
+    <x:t>Click on the Opportunity tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Amount </x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Account Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
+    <x:t>Input valid value in the  Amount field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Amount field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Close Date </x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
+    <x:t>Input valid value in the  Close Date field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Close Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Opportunity Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Opportunity Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Stage </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Stage field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Opportunity with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Opportunity is created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -97,19 +133,19 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
+    <x:t>View Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Opportunity tab,  and select a Opportunity </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Opportunity name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Opportunity Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -118,16 +154,16 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Account Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Account is edited</x:t>
+    <x:t>Edit Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab,  and click on existing Opportunity to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Opportunity Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Opportunity is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
@@ -136,22 +172,22 @@
     <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Account is deleted</x:t>
+    <x:t>Delete Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab,  and select the existing  Opportunity to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Opportunity is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -235,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0">
-  <x:autoFilter ref="A1:K12"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
+  <x:autoFilter ref="A1:K18"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -542,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K12"/>
+  <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -550,12 +586,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="45.700625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="127.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="130.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="97.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -649,36 +685,32 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
       <x:c r="K4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:11">
-      <x:c r="A5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>28</x:v>
@@ -695,36 +727,30 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>35</x:v>
@@ -737,21 +763,27 @@
       <x:c r="K7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="A8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -764,13 +796,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -778,13 +810,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
@@ -794,10 +826,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -808,15 +840,17 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -827,19 +861,147 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
